--- a/mechanics/Total_BOM_Ver_1_0_1.xlsx
+++ b/mechanics/Total_BOM_Ver_1_0_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEVAL_workspace\workspace\cpcbm_repo_3\mechanics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEVAL_workspace\workspace\cpcbm_repo_2\mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,9 +246,6 @@
     <t>Female 3.5mm bullet connectors</t>
   </si>
   <si>
-    <t>Male JST connector</t>
-  </si>
-  <si>
     <t>Female Dupont connector 1x04</t>
   </si>
   <si>
@@ -317,12 +314,15 @@
   <si>
     <t>Used for ESC power supply connection</t>
   </si>
+  <si>
+    <t>Male connector JST PH 2.0 1x04 pins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -386,6 +386,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,6 +535,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -811,7 +820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2047,8 +2056,8 @@
       <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
+      <c r="A54" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2068,7 +2077,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2108,7 +2117,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2128,7 +2137,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2148,7 +2157,7 @@
     </row>
     <row r="59" spans="1:27" ht="12.75">
       <c r="A59" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="60" spans="1:27" ht="12.75">
       <c r="A60" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -2220,7 +2229,7 @@
     </row>
     <row r="61" spans="1:27" ht="25.5">
       <c r="A61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2236,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:27" ht="25.5">
       <c r="A62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2258,13 +2267,13 @@
         <v>2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2284,7 +2293,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2304,7 +2313,7 @@
     </row>
     <row r="65" spans="1:11" ht="25.5">
       <c r="A65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2318,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" ht="12.75">
       <c r="A66" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2344,7 +2353,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2364,7 +2373,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2384,7 +2393,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2404,7 +2413,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2424,7 +2433,7 @@
     </row>
     <row r="71" spans="1:11" ht="25.5">
       <c r="A71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2444,7 +2453,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2464,7 +2473,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2484,7 +2493,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>

--- a/mechanics/Total_BOM_Ver_1_0_1.xlsx
+++ b/mechanics/Total_BOM_Ver_1_0_1.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9870"/>
   </bookViews>
   <sheets>
-    <sheet name="Totals Frame BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Important NOTE" sheetId="2" r:id="rId1"/>
+    <sheet name="Totals Frame BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>Item</t>
   </si>
@@ -317,12 +318,60 @@
   <si>
     <t>Male connector JST PH 2.0 1x04 pins</t>
   </si>
+  <si>
+    <t>https://bitbucket.org/compactpcbmaker/cpcbm/downloads/?tab=tags</t>
+  </si>
+  <si>
+    <r>
+      <t>This is the BOM of The Ant with the new parts released the 21th July 2019, that has the tag "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The_Ant_version_1_0_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>". 
+If you want to download this frozen version, you may find the relative tag in the tags section of our repository:
+If you want to know which are the changes in the releases, please read the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Release Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the mechanics folder.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,6 +441,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -463,10 +532,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,8 +608,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,14 +890,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="103.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="93" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
